--- a/Test/MonPremierTest/Default.xlsx
+++ b/Test/MonPremierTest/Default.xlsx
@@ -21,10 +21,10 @@
     <t>coucou</t>
   </si>
   <si>
-    <t>Recherche</t>
+    <t>valeurRecherche</t>
   </si>
   <si>
-    <t>VALEUR_RECHERCHE</t>
+    <t>Recherche</t>
   </si>
 </sst>
 </file>
@@ -506,18 +506,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="18.39453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.87109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row>
       <c s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row>
